--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2468.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2468.xlsx
@@ -354,7 +354,7 @@
         <v>2.600765301573162</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.46355736951039</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2468.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2468.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.130398623566073</v>
+        <v>1.593583941459656</v>
       </c>
       <c r="B1">
-        <v>2.600765301573162</v>
+        <v>2.314446449279785</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.662900686264038</v>
       </c>
       <c r="D1">
-        <v>3.46355736951039</v>
+        <v>3.484760999679565</v>
       </c>
       <c r="E1">
-        <v>0.9318766488573216</v>
+        <v>0.5208554863929749</v>
       </c>
     </row>
   </sheetData>
